--- a/Output/CPM/etapa1_output.xlsx
+++ b/Output/CPM/etapa1_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,43 +481,53 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Prioridad</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Avg Fichas</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Std Fichas</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Avg Cirug</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Std Cirug</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Avg Ratio</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Std Ratio</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ocupación</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vCp0s8d6</t>
+          <t>vAp1n200s12d3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.79</v>
+        <v>1335.15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -525,42 +535,48 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76547</v>
+        <v>198000</v>
       </c>
       <c r="E2" t="n">
-        <v>953720</v>
+        <v>1219977</v>
       </c>
       <c r="F2" t="n">
-        <v>11.46</v>
+        <v>5.16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>58.21</v>
+        <v>1805.27</v>
       </c>
       <c r="I2" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>213.25</v>
+        <v>198</v>
       </c>
       <c r="K2" t="n">
-        <v>43.2</v>
+        <v>72.83</v>
       </c>
       <c r="L2" t="n">
-        <v>20.5</v>
+        <v>56.41</v>
       </c>
       <c r="M2" t="n">
-        <v>4.56</v>
+        <v>7.33</v>
       </c>
       <c r="N2" t="n">
-        <v>10.49</v>
+        <v>5.72</v>
       </c>
       <c r="O2" t="n">
-        <v>0.88</v>
+        <v>10.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Output/CPM/etapa1_output.xlsx
+++ b/Output/CPM/etapa1_output.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,161 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Instancia</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Memoria</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Valor FO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Best Bound</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rel GAP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo Carga</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo Ejec</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pacientes Atend</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Prioridad</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Avg Fichas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Std Fichas</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Avg Cirug</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Std Cirug</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Avg Ratio</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Std Ratio</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Ocupación</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>vAp1n200s12d3</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1335.15</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Fact</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>198000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1219977</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12.02</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1805.27</v>
-      </c>
-      <c r="I2" t="n">
-        <v>88</v>
-      </c>
-      <c r="J2" t="n">
-        <v>198</v>
-      </c>
-      <c r="K2" t="n">
-        <v>72.83</v>
-      </c>
-      <c r="L2" t="n">
-        <v>56.41</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>